--- a/N_lim/output/phe_zgene.xlsx
+++ b/N_lim/output/phe_zgene.xlsx
@@ -14,702 +14,711 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="235">
+  <si>
+    <t>FAD1</t>
+  </si>
+  <si>
+    <t>SES1</t>
+  </si>
+  <si>
+    <t>DUT1</t>
+  </si>
+  <si>
+    <t>VAS1</t>
+  </si>
+  <si>
+    <t>ADH2</t>
+  </si>
+  <si>
+    <t>HTS1</t>
+  </si>
+  <si>
+    <t>ADE13</t>
+  </si>
+  <si>
+    <t>ACO2</t>
+  </si>
+  <si>
+    <t>LYS12</t>
+  </si>
+  <si>
+    <t>BNA6</t>
+  </si>
+  <si>
+    <t>PRO1</t>
+  </si>
+  <si>
+    <t>AGC1</t>
+  </si>
+  <si>
+    <t>MET12</t>
+  </si>
+  <si>
+    <t>FBA1</t>
+  </si>
+  <si>
+    <t>PDB1</t>
+  </si>
+  <si>
+    <t>FMN1</t>
+  </si>
+  <si>
+    <t>FAP7</t>
+  </si>
+  <si>
+    <t>DED81</t>
+  </si>
+  <si>
+    <t>PFK2</t>
+  </si>
+  <si>
+    <t>AAT1</t>
+  </si>
+  <si>
+    <t>GAP1</t>
+  </si>
+  <si>
+    <t>AAT2</t>
+  </si>
+  <si>
+    <t>PAN5</t>
+  </si>
+  <si>
+    <t>PSD1</t>
+  </si>
+  <si>
+    <t>THS1</t>
+  </si>
+  <si>
+    <t>CDC60</t>
+  </si>
+  <si>
+    <t>URA5</t>
+  </si>
+  <si>
+    <t>RPE1</t>
+  </si>
+  <si>
+    <t>SDH2</t>
+  </si>
+  <si>
+    <t>MET17</t>
+  </si>
+  <si>
+    <t>LPD1</t>
+  </si>
+  <si>
+    <t>IDP1</t>
+  </si>
+  <si>
+    <t>TRP3</t>
+  </si>
+  <si>
+    <t>PIS1</t>
+  </si>
+  <si>
+    <t>CTP1</t>
+  </si>
+  <si>
+    <t>FUM1</t>
+  </si>
+  <si>
+    <t>FAB1</t>
+  </si>
+  <si>
+    <t>SAM1</t>
+  </si>
+  <si>
+    <t>ARG1</t>
+  </si>
+  <si>
+    <t>ASN2</t>
+  </si>
+  <si>
+    <t>MES1</t>
+  </si>
+  <si>
+    <t>SFA1</t>
+  </si>
+  <si>
+    <t>MDH2</t>
+  </si>
+  <si>
+    <t>LYS9</t>
+  </si>
+  <si>
+    <t>FRD1</t>
+  </si>
+  <si>
+    <t>PHS1</t>
+  </si>
+  <si>
+    <t>YEF1</t>
+  </si>
+  <si>
+    <t>UGA2</t>
+  </si>
+  <si>
+    <t>PPA2</t>
+  </si>
+  <si>
+    <t>FAA1</t>
+  </si>
+  <si>
+    <t>ECM31</t>
+  </si>
+  <si>
+    <t>HIS4</t>
+  </si>
+  <si>
+    <t>HIS5</t>
+  </si>
+  <si>
+    <t>ADI1</t>
+  </si>
+  <si>
+    <t>AHP1</t>
+  </si>
+  <si>
+    <t>PIC2</t>
+  </si>
+  <si>
+    <t>LYS21</t>
+  </si>
+  <si>
+    <t>MET14</t>
+  </si>
+  <si>
+    <t>ARG5,6</t>
+  </si>
+  <si>
+    <t>NCE103</t>
+  </si>
+  <si>
+    <t>BNA5</t>
+  </si>
+  <si>
+    <t>PRS1</t>
+  </si>
+  <si>
+    <t>ACO1</t>
+  </si>
+  <si>
+    <t>PHO8</t>
+  </si>
+  <si>
+    <t>HIS1</t>
+  </si>
+  <si>
+    <t>MDE1</t>
+  </si>
+  <si>
+    <t>HIS3</t>
+  </si>
+  <si>
+    <t>GLN4</t>
+  </si>
+  <si>
+    <t>NAT1</t>
+  </si>
+  <si>
+    <t>GLN1</t>
+  </si>
+  <si>
+    <t>ASN1</t>
+  </si>
+  <si>
+    <t>POS5</t>
+  </si>
+  <si>
+    <t>LEU4</t>
+  </si>
+  <si>
+    <t>TYR1</t>
+  </si>
+  <si>
+    <t>ILV5</t>
+  </si>
+  <si>
+    <t>ORT1</t>
+  </si>
+  <si>
+    <t>LYS4</t>
+  </si>
+  <si>
+    <t>CAB3</t>
+  </si>
+  <si>
+    <t>CAB2</t>
+  </si>
+  <si>
+    <t>GRS2</t>
+  </si>
+  <si>
+    <t>URA2</t>
+  </si>
+  <si>
+    <t>NAT2</t>
+  </si>
+  <si>
+    <t>WRS1</t>
+  </si>
+  <si>
+    <t>CKI1</t>
+  </si>
+  <si>
+    <t>BNA1</t>
+  </si>
+  <si>
+    <t>MET6</t>
+  </si>
+  <si>
+    <t>EPT1</t>
+  </si>
+  <si>
+    <t>HIS2</t>
+  </si>
+  <si>
+    <t>SPE2</t>
+  </si>
+  <si>
+    <t>ALA1</t>
+  </si>
+  <si>
+    <t>CPA2</t>
+  </si>
+  <si>
+    <t>UTR1</t>
+  </si>
+  <si>
+    <t>INM1</t>
+  </si>
+  <si>
+    <t>QNS1</t>
+  </si>
+  <si>
+    <t>STR2</t>
+  </si>
+  <si>
+    <t>SAM2</t>
+  </si>
+  <si>
+    <t>URA10</t>
+  </si>
+  <si>
+    <t>MET22</t>
+  </si>
+  <si>
+    <t>ARO8</t>
+  </si>
+  <si>
+    <t>FRS2</t>
+  </si>
+  <si>
+    <t>TYS1</t>
+  </si>
+  <si>
+    <t>MET5</t>
+  </si>
+  <si>
+    <t>GPT2</t>
+  </si>
+  <si>
+    <t>CPT1</t>
+  </si>
+  <si>
+    <t>TRP2</t>
+  </si>
+  <si>
+    <t>ADE3</t>
+  </si>
+  <si>
+    <t>MAE1</t>
+  </si>
+  <si>
+    <t>PRS2</t>
+  </si>
+  <si>
+    <t>SPO14</t>
+  </si>
+  <si>
+    <t>ODC2</t>
+  </si>
+  <si>
+    <t>TRR1</t>
+  </si>
+  <si>
+    <t>OPI3</t>
+  </si>
+  <si>
+    <t>TRX2</t>
+  </si>
+  <si>
+    <t>INP53</t>
+  </si>
+  <si>
+    <t>PUT2</t>
+  </si>
+  <si>
+    <t>ILV6</t>
+  </si>
+  <si>
+    <t>PDA1</t>
+  </si>
+  <si>
+    <t>HOM6</t>
+  </si>
+  <si>
+    <t>GRE2</t>
+  </si>
+  <si>
+    <t>HOM2</t>
+  </si>
+  <si>
+    <t>PXA2</t>
+  </si>
+  <si>
+    <t>FAS1</t>
+  </si>
+  <si>
+    <t>ADE12</t>
+  </si>
+  <si>
+    <t>GUK1</t>
+  </si>
+  <si>
+    <t>APA1</t>
+  </si>
+  <si>
+    <t>ODC1</t>
+  </si>
+  <si>
+    <t>LYS2</t>
+  </si>
+  <si>
+    <t>GDE1</t>
+  </si>
+  <si>
+    <t>PFK1</t>
+  </si>
+  <si>
+    <t>MDH1</t>
+  </si>
+  <si>
+    <t>TRX1</t>
+  </si>
+  <si>
+    <t>PRS5</t>
+  </si>
+  <si>
+    <t>AYR1</t>
+  </si>
+  <si>
+    <t>ADE17</t>
+  </si>
+  <si>
+    <t>ISC1</t>
+  </si>
+  <si>
+    <t>MLS1</t>
+  </si>
+  <si>
+    <t>ERG5</t>
+  </si>
+  <si>
+    <t>GRE3</t>
+  </si>
+  <si>
+    <t>CPA1</t>
+  </si>
+  <si>
+    <t>DIA4</t>
+  </si>
+  <si>
+    <t>LSB6</t>
+  </si>
+  <si>
+    <t>FAA4</t>
+  </si>
+  <si>
+    <t>ADE16</t>
+  </si>
+  <si>
+    <t>MET13</t>
+  </si>
+  <si>
+    <t>ILV1</t>
+  </si>
+  <si>
+    <t>CHO1</t>
+  </si>
+  <si>
+    <t>IFA38</t>
+  </si>
+  <si>
+    <t>TSC13</t>
+  </si>
+  <si>
+    <t>CHO2</t>
+  </si>
+  <si>
+    <t>CDS1</t>
+  </si>
+  <si>
+    <t>FMS1</t>
+  </si>
+  <si>
+    <t>KGD1</t>
+  </si>
+  <si>
+    <t>PDX1</t>
+  </si>
+  <si>
+    <t>ELO1</t>
+  </si>
+  <si>
+    <t>THR1</t>
+  </si>
+  <si>
+    <t>IPP1</t>
+  </si>
+  <si>
+    <t>ZWF1</t>
+  </si>
+  <si>
+    <t>BNA4</t>
+  </si>
+  <si>
+    <t>PRS3</t>
+  </si>
+  <si>
+    <t>MEU1</t>
+  </si>
+  <si>
+    <t>PDH1</t>
+  </si>
+  <si>
+    <t>PRO2</t>
+  </si>
+  <si>
+    <t>CYS3</t>
+  </si>
+  <si>
+    <t>DPS1</t>
+  </si>
+  <si>
+    <t>BNA3</t>
+  </si>
+  <si>
+    <t>JEN1</t>
+  </si>
+  <si>
+    <t>ARG4</t>
+  </si>
+  <si>
+    <t>BNA7</t>
+  </si>
+  <si>
+    <t>ERG13</t>
+  </si>
+  <si>
+    <t>LAT1</t>
+  </si>
+  <si>
+    <t>CYB2</t>
+  </si>
+  <si>
+    <t>YNK1</t>
+  </si>
+  <si>
+    <t>CYC1</t>
+  </si>
+  <si>
+    <t>ERG3</t>
+  </si>
+  <si>
+    <t>THR4</t>
+  </si>
+  <si>
+    <t>SDH4</t>
+  </si>
+  <si>
+    <t>PRO3</t>
+  </si>
+  <si>
+    <t>BNA2</t>
+  </si>
+  <si>
+    <t>STT4</t>
+  </si>
+  <si>
+    <t>KGD2</t>
+  </si>
+  <si>
+    <t>LYS20</t>
+  </si>
+  <si>
+    <t>BDH1</t>
+  </si>
+  <si>
+    <t>ALE1</t>
+  </si>
+  <si>
+    <t>ARG8</t>
+  </si>
+  <si>
+    <t>MET10</t>
+  </si>
+  <si>
+    <t>CAB4</t>
+  </si>
+  <si>
+    <t>GUS1</t>
+  </si>
+  <si>
+    <t>ERG6</t>
+  </si>
+  <si>
+    <t>TRP5</t>
+  </si>
+  <si>
+    <t>THI80</t>
+  </si>
   <si>
     <t>PCT1</t>
   </si>
   <si>
-    <t>MET6</t>
-  </si>
-  <si>
-    <t>BNA6</t>
-  </si>
-  <si>
-    <t>LYS9</t>
-  </si>
-  <si>
-    <t>FUM1</t>
-  </si>
-  <si>
-    <t>ASN2</t>
+    <t>MIR1</t>
+  </si>
+  <si>
+    <t>ILV2</t>
   </si>
   <si>
     <t>HAM1</t>
   </si>
   <si>
+    <t>PXA1</t>
+  </si>
+  <si>
+    <t>FAS2</t>
+  </si>
+  <si>
+    <t>IAH1</t>
+  </si>
+  <si>
+    <t>ADH1</t>
+  </si>
+  <si>
+    <t>SDH1</t>
+  </si>
+  <si>
+    <t>SHM1</t>
+  </si>
+  <si>
+    <t>FRS1</t>
+  </si>
+  <si>
+    <t>YIA6</t>
+  </si>
+  <si>
+    <t>INP52</t>
+  </si>
+  <si>
+    <t>INP54</t>
+  </si>
+  <si>
+    <t>UTR4</t>
+  </si>
+  <si>
+    <t>FAA2</t>
+  </si>
+  <si>
+    <t>INM2</t>
+  </si>
+  <si>
+    <t>MRI1</t>
+  </si>
+  <si>
+    <t>LEU2</t>
+  </si>
+  <si>
+    <t>ARG3</t>
+  </si>
+  <si>
+    <t>ADK1</t>
+  </si>
+  <si>
+    <t>GRS1</t>
+  </si>
+  <si>
+    <t>PUT1</t>
+  </si>
+  <si>
+    <t>MSS4</t>
+  </si>
+  <si>
+    <t>GAD1</t>
+  </si>
+  <si>
+    <t>IDP2</t>
+  </si>
+  <si>
+    <t>ERG10</t>
+  </si>
+  <si>
+    <t>HIS7</t>
+  </si>
+  <si>
+    <t>TRP4</t>
+  </si>
+  <si>
+    <t>ILS1</t>
+  </si>
+  <si>
+    <t>ICL2</t>
+  </si>
+  <si>
+    <t>ADH5</t>
+  </si>
+  <si>
+    <t>CAB1</t>
+  </si>
+  <si>
+    <t>SCT1</t>
+  </si>
+  <si>
+    <t>PGI1</t>
+  </si>
+  <si>
+    <t>LYS1</t>
+  </si>
+  <si>
+    <t>SDH3</t>
+  </si>
+  <si>
+    <t>HOM3</t>
+  </si>
+  <si>
     <t>ACH1</t>
   </si>
   <si>
-    <t>PAN5</t>
-  </si>
-  <si>
-    <t>ERG13</t>
-  </si>
-  <si>
-    <t>GPT2</t>
-  </si>
-  <si>
-    <t>TRP3</t>
-  </si>
-  <si>
-    <t>PDH1</t>
-  </si>
-  <si>
-    <t>LSB6</t>
-  </si>
-  <si>
-    <t>CHO2</t>
-  </si>
-  <si>
-    <t>DIA4</t>
-  </si>
-  <si>
-    <t>AYR1</t>
-  </si>
-  <si>
-    <t>GRS1</t>
-  </si>
-  <si>
-    <t>CAB3</t>
-  </si>
-  <si>
-    <t>CPA2</t>
-  </si>
-  <si>
-    <t>YIA6</t>
-  </si>
-  <si>
-    <t>FAP7</t>
-  </si>
-  <si>
-    <t>ILV6</t>
-  </si>
-  <si>
-    <t>ILV2</t>
-  </si>
-  <si>
-    <t>PXA2</t>
-  </si>
-  <si>
-    <t>ILV5</t>
-  </si>
-  <si>
-    <t>URA5</t>
-  </si>
-  <si>
-    <t>ADE16</t>
-  </si>
-  <si>
-    <t>PFK2</t>
-  </si>
-  <si>
-    <t>HIS1</t>
-  </si>
-  <si>
-    <t>GUS1</t>
-  </si>
-  <si>
-    <t>SPE2</t>
-  </si>
-  <si>
-    <t>ADH1</t>
-  </si>
-  <si>
-    <t>GRS2</t>
-  </si>
-  <si>
-    <t>TYR1</t>
-  </si>
-  <si>
-    <t>PDB1</t>
-  </si>
-  <si>
-    <t>ADK1</t>
-  </si>
-  <si>
-    <t>PDA1</t>
-  </si>
-  <si>
-    <t>APA1</t>
-  </si>
-  <si>
-    <t>TSC13</t>
-  </si>
-  <si>
-    <t>FAA1</t>
-  </si>
-  <si>
-    <t>ERG6</t>
-  </si>
-  <si>
-    <t>ICL2</t>
-  </si>
-  <si>
-    <t>PIC2</t>
-  </si>
-  <si>
-    <t>ADH2</t>
-  </si>
-  <si>
-    <t>CYS3</t>
+    <t>MET2</t>
+  </si>
+  <si>
+    <t>ARG7</t>
+  </si>
+  <si>
+    <t>URA4</t>
   </si>
   <si>
     <t>UGA1</t>
   </si>
   <si>
-    <t>ADH5</t>
-  </si>
-  <si>
-    <t>ADE12</t>
-  </si>
-  <si>
-    <t>PPA2</t>
-  </si>
-  <si>
-    <t>ARO8</t>
-  </si>
-  <si>
-    <t>GRE2</t>
-  </si>
-  <si>
-    <t>CTP1</t>
-  </si>
-  <si>
-    <t>DED81</t>
-  </si>
-  <si>
-    <t>PRO3</t>
+    <t>ILV3</t>
   </si>
   <si>
     <t>ALT2</t>
-  </si>
-  <si>
-    <t>TRP2</t>
-  </si>
-  <si>
-    <t>TRX2</t>
-  </si>
-  <si>
-    <t>MET2</t>
-  </si>
-  <si>
-    <t>MSS4</t>
-  </si>
-  <si>
-    <t>KGD2</t>
-  </si>
-  <si>
-    <t>IDP2</t>
-  </si>
-  <si>
-    <t>BNA7</t>
-  </si>
-  <si>
-    <t>ACO1</t>
-  </si>
-  <si>
-    <t>ODC2</t>
-  </si>
-  <si>
-    <t>TRR1</t>
-  </si>
-  <si>
-    <t>SDH4</t>
-  </si>
-  <si>
-    <t>ARG8</t>
-  </si>
-  <si>
-    <t>IPP1</t>
-  </si>
-  <si>
-    <t>PHS1</t>
-  </si>
-  <si>
-    <t>HIS2</t>
-  </si>
-  <si>
-    <t>CKI1</t>
-  </si>
-  <si>
-    <t>CYC1</t>
-  </si>
-  <si>
-    <t>PRS1</t>
-  </si>
-  <si>
-    <t>THI80</t>
-  </si>
-  <si>
-    <t>HOM6</t>
-  </si>
-  <si>
-    <t>GLN1</t>
-  </si>
-  <si>
-    <t>YEF1</t>
-  </si>
-  <si>
-    <t>TRP5</t>
-  </si>
-  <si>
-    <t>UTR4</t>
-  </si>
-  <si>
-    <t>LYS20</t>
-  </si>
-  <si>
-    <t>ARG1</t>
-  </si>
-  <si>
-    <t>KGD1</t>
-  </si>
-  <si>
-    <t>IFA38</t>
-  </si>
-  <si>
-    <t>ALA1</t>
-  </si>
-  <si>
-    <t>BNA1</t>
-  </si>
-  <si>
-    <t>MRI1</t>
-  </si>
-  <si>
-    <t>MET5</t>
-  </si>
-  <si>
-    <t>BNA5</t>
-  </si>
-  <si>
-    <t>SHM1</t>
-  </si>
-  <si>
-    <t>ADI1</t>
-  </si>
-  <si>
-    <t>ARG4</t>
-  </si>
-  <si>
-    <t>MET22</t>
-  </si>
-  <si>
-    <t>HOM2</t>
-  </si>
-  <si>
-    <t>ADE3</t>
-  </si>
-  <si>
-    <t>INP54</t>
-  </si>
-  <si>
-    <t>ARG7</t>
-  </si>
-  <si>
-    <t>PUT1</t>
-  </si>
-  <si>
-    <t>FMN1</t>
-  </si>
-  <si>
-    <t>ILS1</t>
-  </si>
-  <si>
-    <t>MET13</t>
-  </si>
-  <si>
-    <t>HIS3</t>
-  </si>
-  <si>
-    <t>TRX1</t>
-  </si>
-  <si>
-    <t>MET17</t>
-  </si>
-  <si>
-    <t>FAA2</t>
-  </si>
-  <si>
-    <t>LYS4</t>
-  </si>
-  <si>
-    <t>HIS7</t>
-  </si>
-  <si>
-    <t>BNA4</t>
-  </si>
-  <si>
-    <t>PSD1</t>
-  </si>
-  <si>
-    <t>SAM2</t>
-  </si>
-  <si>
-    <t>FBA1</t>
-  </si>
-  <si>
-    <t>YNK1</t>
-  </si>
-  <si>
-    <t>PRS3</t>
-  </si>
-  <si>
-    <t>ADE13</t>
-  </si>
-  <si>
-    <t>AAT2</t>
-  </si>
-  <si>
-    <t>MEU1</t>
-  </si>
-  <si>
-    <t>INM1</t>
-  </si>
-  <si>
-    <t>PDX1</t>
-  </si>
-  <si>
-    <t>SES1</t>
-  </si>
-  <si>
-    <t>FAS2</t>
-  </si>
-  <si>
-    <t>SFA1</t>
-  </si>
-  <si>
-    <t>MDH1</t>
-  </si>
-  <si>
-    <t>LAT1</t>
-  </si>
-  <si>
-    <t>VAS1</t>
-  </si>
-  <si>
-    <t>IDP1</t>
-  </si>
-  <si>
-    <t>ALE1</t>
-  </si>
-  <si>
-    <t>OPI3</t>
-  </si>
-  <si>
-    <t>PRS2</t>
-  </si>
-  <si>
-    <t>PIS1</t>
-  </si>
-  <si>
-    <t>AAT1</t>
-  </si>
-  <si>
-    <t>STR2</t>
-  </si>
-  <si>
-    <t>CDC60</t>
-  </si>
-  <si>
-    <t>CYB2</t>
-  </si>
-  <si>
-    <t>BNA2</t>
-  </si>
-  <si>
-    <t>AGC1</t>
-  </si>
-  <si>
-    <t>GAD1</t>
-  </si>
-  <si>
-    <t>ACO2</t>
-  </si>
-  <si>
-    <t>TRP4</t>
-  </si>
-  <si>
-    <t>MET10</t>
-  </si>
-  <si>
-    <t>MET12</t>
-  </si>
-  <si>
-    <t>LYS12</t>
-  </si>
-  <si>
-    <t>ILV1</t>
-  </si>
-  <si>
-    <t>CHO1</t>
-  </si>
-  <si>
-    <t>FAB1</t>
-  </si>
-  <si>
-    <t>ODC1</t>
-  </si>
-  <si>
-    <t>CAB2</t>
-  </si>
-  <si>
-    <t>PGI1</t>
-  </si>
-  <si>
-    <t>CAB4</t>
-  </si>
-  <si>
-    <t>ISC1</t>
-  </si>
-  <si>
-    <t>LYS1</t>
-  </si>
-  <si>
-    <t>STT4</t>
-  </si>
-  <si>
-    <t>HTS1</t>
-  </si>
-  <si>
-    <t>URA10</t>
-  </si>
-  <si>
-    <t>NAT2</t>
-  </si>
-  <si>
-    <t>LEU4</t>
-  </si>
-  <si>
-    <t>ERG5</t>
-  </si>
-  <si>
-    <t>SDH3</t>
-  </si>
-  <si>
-    <t>PUT2</t>
-  </si>
-  <si>
-    <t>ILV3</t>
-  </si>
-  <si>
-    <t>ASN1</t>
-  </si>
-  <si>
-    <t>LYS21</t>
-  </si>
-  <si>
-    <t>FRD1</t>
-  </si>
-  <si>
-    <t>GUK1</t>
-  </si>
-  <si>
-    <t>ORT1</t>
-  </si>
-  <si>
-    <t>LPD1</t>
-  </si>
-  <si>
-    <t>INP52</t>
-  </si>
-  <si>
-    <t>EPT1</t>
-  </si>
-  <si>
-    <t>ZWF1</t>
-  </si>
-  <si>
-    <t>RPE1</t>
-  </si>
-  <si>
-    <t>INP53</t>
-  </si>
-  <si>
-    <t>ADE17</t>
-  </si>
-  <si>
-    <t>CAB1</t>
-  </si>
-  <si>
-    <t>POS5</t>
-  </si>
-  <si>
-    <t>IAH1</t>
-  </si>
-  <si>
-    <t>FRS2</t>
-  </si>
-  <si>
-    <t>PRS5</t>
-  </si>
-  <si>
-    <t>TYS1</t>
-  </si>
-  <si>
-    <t>INM2</t>
-  </si>
-  <si>
-    <t>GLN4</t>
-  </si>
-  <si>
-    <t>FRS1</t>
-  </si>
-  <si>
-    <t>THS1</t>
-  </si>
-  <si>
-    <t>CPA1</t>
-  </si>
-  <si>
-    <t>UTR1</t>
-  </si>
-  <si>
-    <t>FMS1</t>
-  </si>
-  <si>
-    <t>PRO2</t>
-  </si>
-  <si>
-    <t>SCT1</t>
-  </si>
-  <si>
-    <t>PRO1</t>
-  </si>
-  <si>
-    <t>GDE1</t>
-  </si>
-  <si>
-    <t>ECM31</t>
-  </si>
-  <si>
-    <t>PHO8</t>
-  </si>
-  <si>
-    <t>HIS4</t>
-  </si>
-  <si>
-    <t>CDS1</t>
-  </si>
-  <si>
-    <t>GAP1</t>
-  </si>
-  <si>
-    <t>FAD1</t>
-  </si>
-  <si>
-    <t>BDH1</t>
-  </si>
-  <si>
-    <t>AHP1</t>
-  </si>
-  <si>
-    <t>ARG5,6</t>
-  </si>
-  <si>
-    <t>ELO1</t>
-  </si>
-  <si>
-    <t>HOM3</t>
-  </si>
-  <si>
-    <t>URA4</t>
-  </si>
-  <si>
-    <t>SPO14</t>
-  </si>
-  <si>
-    <t>DPS1</t>
-  </si>
-  <si>
-    <t>ERG3</t>
-  </si>
-  <si>
-    <t>ARG3</t>
-  </si>
-  <si>
-    <t>URA2</t>
-  </si>
-  <si>
-    <t>SAM1</t>
-  </si>
-  <si>
-    <t>THR1</t>
-  </si>
-  <si>
-    <t>CPT1</t>
-  </si>
-  <si>
-    <t>ERG10</t>
-  </si>
-  <si>
-    <t>DUT1</t>
-  </si>
-  <si>
-    <t>QNS1</t>
-  </si>
-  <si>
-    <t>THR4</t>
-  </si>
-  <si>
-    <t>MDH2</t>
-  </si>
-  <si>
-    <t>MES1</t>
-  </si>
-  <si>
-    <t>SDH2</t>
-  </si>
-  <si>
-    <t>MDE1</t>
-  </si>
-  <si>
-    <t>FAA4</t>
-  </si>
-  <si>
-    <t>HIS5</t>
-  </si>
-  <si>
-    <t>MLS1</t>
-  </si>
-  <si>
-    <t>PFK1</t>
-  </si>
-  <si>
-    <t>FAS1</t>
-  </si>
-  <si>
-    <t>NAT1</t>
-  </si>
-  <si>
-    <t>MIR1</t>
-  </si>
-  <si>
-    <t>NCE103</t>
-  </si>
-  <si>
-    <t>MAE1</t>
-  </si>
-  <si>
-    <t>UGA2</t>
-  </si>
-  <si>
-    <t>JEN1</t>
-  </si>
-  <si>
-    <t>SDH1</t>
-  </si>
-  <si>
-    <t>WRS1</t>
-  </si>
-  <si>
-    <t>MET14</t>
-  </si>
-  <si>
-    <t>GRE3</t>
-  </si>
-  <si>
-    <t>PXA1</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A246"/>
+  <dimension ref="A1:A249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1175,207 +1184,207 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:1">
@@ -1480,42 +1489,42 @@
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -1580,212 +1589,212 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
     </row>
     <row r="144" spans="1:1">
@@ -1840,402 +1849,402 @@
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>196</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>217</v>
+        <v>18</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>219</v>
+        <v>118</v>
       </c>
     </row>
     <row r="234" spans="1:1">
@@ -2265,22 +2274,22 @@
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>23</v>
+        <v>225</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
     </row>
     <row r="243" spans="1:1">
@@ -2301,6 +2310,21 @@
     <row r="246" spans="1:1">
       <c r="A246" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/N_lim/output/phe_zgene.xlsx
+++ b/N_lim/output/phe_zgene.xlsx
@@ -14,711 +14,795 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="263">
+  <si>
+    <t>WRS1</t>
+  </si>
+  <si>
+    <t>LYS4</t>
+  </si>
+  <si>
+    <t>TYR1</t>
+  </si>
+  <si>
+    <t>FOL3</t>
+  </si>
+  <si>
+    <t>PRS5</t>
+  </si>
+  <si>
+    <t>TYS1</t>
+  </si>
+  <si>
+    <t>LYS21</t>
+  </si>
+  <si>
+    <t>ERG6</t>
+  </si>
+  <si>
+    <t>TRP5</t>
+  </si>
+  <si>
+    <t>FOL2</t>
+  </si>
+  <si>
+    <t>ERG27</t>
+  </si>
+  <si>
+    <t>HEM1</t>
+  </si>
+  <si>
+    <t>IDP2</t>
+  </si>
+  <si>
+    <t>LYS9</t>
+  </si>
+  <si>
+    <t>MET6</t>
+  </si>
+  <si>
+    <t>CDS1</t>
+  </si>
+  <si>
+    <t>MET13</t>
+  </si>
+  <si>
+    <t>ALE1</t>
+  </si>
+  <si>
+    <t>ERG26</t>
+  </si>
+  <si>
+    <t>ERG8</t>
+  </si>
+  <si>
+    <t>ERG4</t>
+  </si>
+  <si>
+    <t>ERG20</t>
+  </si>
+  <si>
+    <t>HIS1</t>
+  </si>
+  <si>
+    <t>NEO1</t>
+  </si>
+  <si>
+    <t>HOM2</t>
+  </si>
+  <si>
+    <t>CPA1</t>
+  </si>
+  <si>
+    <t>HEM4</t>
+  </si>
+  <si>
+    <t>PIC2</t>
+  </si>
+  <si>
+    <t>URA10</t>
+  </si>
+  <si>
+    <t>GLN1</t>
+  </si>
+  <si>
+    <t>GPD2</t>
+  </si>
+  <si>
+    <t>GRX3</t>
+  </si>
+  <si>
+    <t>TPS3</t>
+  </si>
+  <si>
+    <t>ILS1</t>
+  </si>
+  <si>
+    <t>ERG12</t>
+  </si>
+  <si>
+    <t>APA1</t>
+  </si>
+  <si>
+    <t>PSD2</t>
+  </si>
+  <si>
+    <t>PPN1</t>
+  </si>
+  <si>
+    <t>CAB5</t>
+  </si>
+  <si>
+    <t>PAH1</t>
+  </si>
+  <si>
+    <t>FAS1</t>
+  </si>
+  <si>
+    <t>PMT3</t>
+  </si>
+  <si>
+    <t>ILV2</t>
+  </si>
+  <si>
+    <t>YEF1</t>
+  </si>
+  <si>
+    <t>HIS2</t>
+  </si>
+  <si>
+    <t>RHO1</t>
+  </si>
+  <si>
+    <t>GRX2</t>
+  </si>
+  <si>
+    <t>HOM6</t>
+  </si>
+  <si>
+    <t>OLE1</t>
+  </si>
+  <si>
+    <t>CHO1</t>
+  </si>
+  <si>
+    <t>URA5</t>
+  </si>
+  <si>
+    <t>GPT2</t>
+  </si>
+  <si>
+    <t>HIS7</t>
+  </si>
+  <si>
+    <t>FOL1</t>
+  </si>
+  <si>
+    <t>ERG24</t>
+  </si>
+  <si>
+    <t>ARG3</t>
+  </si>
+  <si>
+    <t>ILV3</t>
+  </si>
+  <si>
+    <t>ERG7</t>
+  </si>
+  <si>
+    <t>MIR1</t>
+  </si>
+  <si>
+    <t>HEM14</t>
+  </si>
+  <si>
+    <t>PGA3</t>
+  </si>
+  <si>
+    <t>RIB1</t>
+  </si>
+  <si>
+    <t>CDC21</t>
+  </si>
+  <si>
+    <t>ERG3</t>
+  </si>
+  <si>
+    <t>SER1</t>
+  </si>
+  <si>
+    <t>TRX2</t>
+  </si>
+  <si>
+    <t>THS1</t>
+  </si>
+  <si>
+    <t>FAS2</t>
+  </si>
+  <si>
+    <t>UGA2</t>
+  </si>
+  <si>
+    <t>URA4</t>
+  </si>
+  <si>
+    <t>TRX1</t>
+  </si>
+  <si>
+    <t>PGK1</t>
+  </si>
+  <si>
+    <t>GSC2</t>
+  </si>
+  <si>
+    <t>HIS4</t>
+  </si>
+  <si>
+    <t>HIS3</t>
+  </si>
+  <si>
+    <t>MET14</t>
+  </si>
+  <si>
+    <t>DPS1</t>
+  </si>
+  <si>
+    <t>LEU4</t>
+  </si>
+  <si>
+    <t>SAM2</t>
+  </si>
+  <si>
+    <t>ERG25</t>
+  </si>
+  <si>
+    <t>OPI3</t>
+  </si>
+  <si>
+    <t>LYS12</t>
+  </si>
+  <si>
+    <t>PMT1</t>
+  </si>
+  <si>
+    <t>ABZ2</t>
+  </si>
+  <si>
+    <t>CBR1</t>
+  </si>
+  <si>
+    <t>CAB1</t>
+  </si>
+  <si>
+    <t>IDI1</t>
+  </si>
+  <si>
+    <t>TPS1</t>
+  </si>
+  <si>
+    <t>PGM1</t>
+  </si>
+  <si>
+    <t>MET5</t>
+  </si>
+  <si>
+    <t>ADE12</t>
+  </si>
+  <si>
+    <t>GLG2</t>
+  </si>
+  <si>
+    <t>ADO1</t>
+  </si>
+  <si>
+    <t>LYS1</t>
+  </si>
+  <si>
+    <t>GRX1</t>
+  </si>
+  <si>
+    <t>RIB4</t>
+  </si>
+  <si>
+    <t>UGA1</t>
+  </si>
+  <si>
+    <t>LEU2</t>
+  </si>
+  <si>
+    <t>THR1</t>
+  </si>
+  <si>
+    <t>ARO7</t>
+  </si>
+  <si>
+    <t>PRO1</t>
+  </si>
+  <si>
+    <t>PGM2</t>
+  </si>
+  <si>
+    <t>DRS2</t>
+  </si>
+  <si>
+    <t>ADE16</t>
+  </si>
+  <si>
+    <t>ADE13</t>
+  </si>
+  <si>
+    <t>PRS2</t>
+  </si>
+  <si>
+    <t>ADH1</t>
+  </si>
+  <si>
+    <t>SAM1</t>
+  </si>
+  <si>
+    <t>FRS2</t>
+  </si>
+  <si>
+    <t>URA6</t>
+  </si>
+  <si>
+    <t>GRS1</t>
+  </si>
+  <si>
+    <t>HEM13</t>
+  </si>
+  <si>
+    <t>ERG9</t>
+  </si>
+  <si>
+    <t>MET2</t>
+  </si>
+  <si>
+    <t>SKN1</t>
+  </si>
+  <si>
+    <t>TSL1</t>
+  </si>
+  <si>
+    <t>HEM15</t>
+  </si>
+  <si>
+    <t>MET22</t>
+  </si>
+  <si>
+    <t>FAP7</t>
+  </si>
+  <si>
+    <t>PYC2</t>
+  </si>
+  <si>
+    <t>ARO3</t>
+  </si>
+  <si>
+    <t>PRO3</t>
+  </si>
+  <si>
+    <t>PSD1</t>
+  </si>
+  <si>
+    <t>CAB2</t>
+  </si>
+  <si>
+    <t>SFA1</t>
+  </si>
+  <si>
+    <t>GLN4</t>
+  </si>
+  <si>
+    <t>ARG1</t>
+  </si>
+  <si>
+    <t>BNA6</t>
+  </si>
+  <si>
+    <t>ODC1</t>
+  </si>
+  <si>
+    <t>KRE6</t>
+  </si>
+  <si>
+    <t>SHM2</t>
+  </si>
+  <si>
+    <t>ZRT1</t>
+  </si>
+  <si>
+    <t>SHM1</t>
+  </si>
+  <si>
+    <t>PYC1</t>
+  </si>
+  <si>
+    <t>NCP1</t>
+  </si>
+  <si>
+    <t>ADI1</t>
+  </si>
+  <si>
+    <t>CDC19</t>
+  </si>
+  <si>
+    <t>MET12</t>
+  </si>
+  <si>
+    <t>PFK2</t>
+  </si>
+  <si>
+    <t>ARG7</t>
+  </si>
+  <si>
+    <t>AGC1</t>
+  </si>
+  <si>
+    <t>BNA4</t>
+  </si>
+  <si>
+    <t>PSA1</t>
+  </si>
+  <si>
+    <t>ASN1</t>
+  </si>
+  <si>
+    <t>SPE2</t>
+  </si>
+  <si>
+    <t>ADE3</t>
+  </si>
+  <si>
+    <t>HMG2</t>
+  </si>
+  <si>
+    <t>ARO4</t>
+  </si>
+  <si>
+    <t>TRR1</t>
+  </si>
+  <si>
+    <t>PIS1</t>
+  </si>
+  <si>
+    <t>ERG5</t>
+  </si>
+  <si>
+    <t>CHO2</t>
+  </si>
+  <si>
+    <t>ERG13</t>
+  </si>
+  <si>
+    <t>RPE1</t>
+  </si>
+  <si>
+    <t>URA2</t>
+  </si>
+  <si>
+    <t>BNA1</t>
+  </si>
+  <si>
+    <t>BNA5</t>
+  </si>
+  <si>
+    <t>GSY2</t>
+  </si>
+  <si>
+    <t>SER2</t>
+  </si>
+  <si>
+    <t>CDC60</t>
+  </si>
+  <si>
+    <t>RIB7</t>
+  </si>
+  <si>
+    <t>FUM1</t>
+  </si>
+  <si>
+    <t>PPX1</t>
+  </si>
+  <si>
+    <t>PAN5</t>
+  </si>
+  <si>
+    <t>ASN2</t>
+  </si>
+  <si>
+    <t>RIB3</t>
+  </si>
+  <si>
+    <t>SCT1</t>
+  </si>
+  <si>
+    <t>ZWF1</t>
+  </si>
+  <si>
+    <t>UTR1</t>
+  </si>
+  <si>
+    <t>PFK1</t>
+  </si>
+  <si>
+    <t>ARG5,6</t>
+  </si>
+  <si>
+    <t>FRS1</t>
+  </si>
+  <si>
+    <t>MRI1</t>
+  </si>
+  <si>
+    <t>TRP4</t>
+  </si>
   <si>
     <t>FAD1</t>
   </si>
   <si>
+    <t>GSY1</t>
+  </si>
+  <si>
+    <t>GPD1</t>
+  </si>
+  <si>
+    <t>ZRT2</t>
+  </si>
+  <si>
+    <t>ALA1</t>
+  </si>
+  <si>
+    <t>PMT2</t>
+  </si>
+  <si>
+    <t>BNA7</t>
+  </si>
+  <si>
+    <t>ACO1</t>
+  </si>
+  <si>
+    <t>HEM12</t>
+  </si>
+  <si>
+    <t>HEM2</t>
+  </si>
+  <si>
+    <t>ARO2</t>
+  </si>
+  <si>
+    <t>PDX3</t>
+  </si>
+  <si>
+    <t>YNK1</t>
+  </si>
+  <si>
+    <t>FMS1</t>
+  </si>
+  <si>
+    <t>TRP2</t>
+  </si>
+  <si>
+    <t>TRP3</t>
+  </si>
+  <si>
+    <t>ORT1</t>
+  </si>
+  <si>
+    <t>PMT5</t>
+  </si>
+  <si>
+    <t>ILV5</t>
+  </si>
+  <si>
+    <t>PYK2</t>
+  </si>
+  <si>
+    <t>ERG1</t>
+  </si>
+  <si>
+    <t>MDE1</t>
+  </si>
+  <si>
+    <t>ADE17</t>
+  </si>
+  <si>
+    <t>SLC1</t>
+  </si>
+  <si>
+    <t>SMF1</t>
+  </si>
+  <si>
+    <t>HIS5</t>
+  </si>
+  <si>
+    <t>PMT4</t>
+  </si>
+  <si>
+    <t>LYS20</t>
+  </si>
+  <si>
+    <t>ADH5</t>
+  </si>
+  <si>
+    <t>ARG8</t>
+  </si>
+  <si>
+    <t>TPI1</t>
+  </si>
+  <si>
+    <t>CPA2</t>
+  </si>
+  <si>
+    <t>FKS1</t>
+  </si>
+  <si>
+    <t>DED81</t>
+  </si>
+  <si>
+    <t>HOM3</t>
+  </si>
+  <si>
+    <t>MET10</t>
+  </si>
+  <si>
+    <t>HTS1</t>
+  </si>
+  <si>
+    <t>GUS1</t>
+  </si>
+  <si>
+    <t>COX15</t>
+  </si>
+  <si>
+    <t>PPA2</t>
+  </si>
+  <si>
+    <t>BNA2</t>
+  </si>
+  <si>
+    <t>INM2</t>
+  </si>
+  <si>
+    <t>MEU1</t>
+  </si>
+  <si>
+    <t>GLR1</t>
+  </si>
+  <si>
+    <t>GRX4</t>
+  </si>
+  <si>
+    <t>MES1</t>
+  </si>
+  <si>
+    <t>PRS3</t>
+  </si>
+  <si>
+    <t>RIB5</t>
+  </si>
+  <si>
+    <t>DPM1</t>
+  </si>
+  <si>
+    <t>ARO1</t>
+  </si>
+  <si>
+    <t>SAH1</t>
+  </si>
+  <si>
+    <t>ABZ1</t>
+  </si>
+  <si>
+    <t>PRS1</t>
+  </si>
+  <si>
+    <t>ODC2</t>
+  </si>
+  <si>
+    <t>LEU5</t>
+  </si>
+  <si>
+    <t>IDP1</t>
+  </si>
+  <si>
+    <t>ALT2</t>
+  </si>
+  <si>
+    <t>NCE103</t>
+  </si>
+  <si>
+    <t>INO1</t>
+  </si>
+  <si>
+    <t>DIA4</t>
+  </si>
+  <si>
     <t>SES1</t>
   </si>
   <si>
-    <t>DUT1</t>
+    <t>RIB2</t>
+  </si>
+  <si>
+    <t>ECM31</t>
+  </si>
+  <si>
+    <t>ERG11</t>
+  </si>
+  <si>
+    <t>ACO2</t>
+  </si>
+  <si>
+    <t>ARG4</t>
+  </si>
+  <si>
+    <t>ERG10</t>
+  </si>
+  <si>
+    <t>QNS1</t>
+  </si>
+  <si>
+    <t>HMG1</t>
+  </si>
+  <si>
+    <t>GUK1</t>
+  </si>
+  <si>
+    <t>CAB4</t>
+  </si>
+  <si>
+    <t>THR4</t>
+  </si>
+  <si>
+    <t>DNF3</t>
+  </si>
+  <si>
+    <t>INM1</t>
+  </si>
+  <si>
+    <t>PRO2</t>
+  </si>
+  <si>
+    <t>FBA1</t>
+  </si>
+  <si>
+    <t>YND1</t>
+  </si>
+  <si>
+    <t>GRS2</t>
+  </si>
+  <si>
+    <t>ILV6</t>
+  </si>
+  <si>
+    <t>ADK1</t>
+  </si>
+  <si>
+    <t>ARO8</t>
   </si>
   <si>
     <t>VAS1</t>
   </si>
   <si>
-    <t>ADH2</t>
-  </si>
-  <si>
-    <t>HTS1</t>
-  </si>
-  <si>
-    <t>ADE13</t>
-  </si>
-  <si>
-    <t>ACO2</t>
-  </si>
-  <si>
-    <t>LYS12</t>
-  </si>
-  <si>
-    <t>BNA6</t>
-  </si>
-  <si>
-    <t>PRO1</t>
-  </si>
-  <si>
-    <t>AGC1</t>
-  </si>
-  <si>
-    <t>MET12</t>
-  </si>
-  <si>
-    <t>FBA1</t>
-  </si>
-  <si>
-    <t>PDB1</t>
-  </si>
-  <si>
-    <t>FMN1</t>
-  </si>
-  <si>
-    <t>FAP7</t>
-  </si>
-  <si>
-    <t>DED81</t>
-  </si>
-  <si>
-    <t>PFK2</t>
-  </si>
-  <si>
-    <t>AAT1</t>
-  </si>
-  <si>
-    <t>GAP1</t>
-  </si>
-  <si>
-    <t>AAT2</t>
-  </si>
-  <si>
-    <t>PAN5</t>
-  </si>
-  <si>
-    <t>PSD1</t>
-  </si>
-  <si>
-    <t>THS1</t>
-  </si>
-  <si>
-    <t>CDC60</t>
-  </si>
-  <si>
-    <t>URA5</t>
-  </si>
-  <si>
-    <t>RPE1</t>
-  </si>
-  <si>
-    <t>SDH2</t>
+    <t>MVD1</t>
+  </si>
+  <si>
+    <t>GDH2</t>
+  </si>
+  <si>
+    <t>GET3</t>
   </si>
   <si>
     <t>MET17</t>
   </si>
   <si>
-    <t>LPD1</t>
-  </si>
-  <si>
-    <t>IDP1</t>
-  </si>
-  <si>
-    <t>TRP3</t>
-  </si>
-  <si>
-    <t>PIS1</t>
-  </si>
-  <si>
-    <t>CTP1</t>
-  </si>
-  <si>
-    <t>FUM1</t>
-  </si>
-  <si>
-    <t>FAB1</t>
-  </si>
-  <si>
-    <t>SAM1</t>
-  </si>
-  <si>
-    <t>ARG1</t>
-  </si>
-  <si>
-    <t>ASN2</t>
-  </si>
-  <si>
-    <t>MES1</t>
-  </si>
-  <si>
-    <t>SFA1</t>
-  </si>
-  <si>
-    <t>MDH2</t>
-  </si>
-  <si>
-    <t>LYS9</t>
-  </si>
-  <si>
-    <t>FRD1</t>
-  </si>
-  <si>
-    <t>PHS1</t>
-  </si>
-  <si>
-    <t>YEF1</t>
-  </si>
-  <si>
-    <t>UGA2</t>
-  </si>
-  <si>
-    <t>PPA2</t>
-  </si>
-  <si>
-    <t>FAA1</t>
-  </si>
-  <si>
-    <t>ECM31</t>
-  </si>
-  <si>
-    <t>HIS4</t>
-  </si>
-  <si>
-    <t>HIS5</t>
-  </si>
-  <si>
-    <t>ADI1</t>
-  </si>
-  <si>
-    <t>AHP1</t>
-  </si>
-  <si>
-    <t>PIC2</t>
-  </si>
-  <si>
-    <t>LYS21</t>
-  </si>
-  <si>
-    <t>MET14</t>
-  </si>
-  <si>
-    <t>ARG5,6</t>
-  </si>
-  <si>
-    <t>NCE103</t>
-  </si>
-  <si>
-    <t>BNA5</t>
-  </si>
-  <si>
-    <t>PRS1</t>
-  </si>
-  <si>
-    <t>ACO1</t>
-  </si>
-  <si>
-    <t>PHO8</t>
-  </si>
-  <si>
-    <t>HIS1</t>
-  </si>
-  <si>
-    <t>MDE1</t>
-  </si>
-  <si>
-    <t>HIS3</t>
-  </si>
-  <si>
-    <t>GLN4</t>
-  </si>
-  <si>
-    <t>NAT1</t>
-  </si>
-  <si>
-    <t>GLN1</t>
-  </si>
-  <si>
-    <t>ASN1</t>
-  </si>
-  <si>
-    <t>POS5</t>
-  </si>
-  <si>
-    <t>LEU4</t>
-  </si>
-  <si>
-    <t>TYR1</t>
-  </si>
-  <si>
-    <t>ILV5</t>
-  </si>
-  <si>
-    <t>ORT1</t>
-  </si>
-  <si>
-    <t>LYS4</t>
-  </si>
-  <si>
-    <t>CAB3</t>
-  </si>
-  <si>
-    <t>CAB2</t>
-  </si>
-  <si>
-    <t>GRS2</t>
-  </si>
-  <si>
-    <t>URA2</t>
-  </si>
-  <si>
-    <t>NAT2</t>
-  </si>
-  <si>
-    <t>WRS1</t>
-  </si>
-  <si>
-    <t>CKI1</t>
-  </si>
-  <si>
-    <t>BNA1</t>
-  </si>
-  <si>
-    <t>MET6</t>
-  </si>
-  <si>
-    <t>EPT1</t>
-  </si>
-  <si>
-    <t>HIS2</t>
-  </si>
-  <si>
-    <t>SPE2</t>
-  </si>
-  <si>
-    <t>ALA1</t>
-  </si>
-  <si>
-    <t>CPA2</t>
-  </si>
-  <si>
-    <t>UTR1</t>
-  </si>
-  <si>
-    <t>INM1</t>
-  </si>
-  <si>
-    <t>QNS1</t>
-  </si>
-  <si>
-    <t>STR2</t>
-  </si>
-  <si>
-    <t>SAM2</t>
-  </si>
-  <si>
-    <t>URA10</t>
-  </si>
-  <si>
-    <t>MET22</t>
-  </si>
-  <si>
-    <t>ARO8</t>
-  </si>
-  <si>
-    <t>FRS2</t>
-  </si>
-  <si>
-    <t>TYS1</t>
-  </si>
-  <si>
-    <t>MET5</t>
-  </si>
-  <si>
-    <t>GPT2</t>
-  </si>
-  <si>
-    <t>CPT1</t>
-  </si>
-  <si>
-    <t>TRP2</t>
-  </si>
-  <si>
-    <t>ADE3</t>
-  </si>
-  <si>
-    <t>MAE1</t>
-  </si>
-  <si>
-    <t>PRS2</t>
-  </si>
-  <si>
-    <t>SPO14</t>
-  </si>
-  <si>
-    <t>ODC2</t>
-  </si>
-  <si>
-    <t>TRR1</t>
-  </si>
-  <si>
-    <t>OPI3</t>
-  </si>
-  <si>
-    <t>TRX2</t>
-  </si>
-  <si>
-    <t>INP53</t>
-  </si>
-  <si>
-    <t>PUT2</t>
-  </si>
-  <si>
-    <t>ILV6</t>
-  </si>
-  <si>
-    <t>PDA1</t>
-  </si>
-  <si>
-    <t>HOM6</t>
-  </si>
-  <si>
-    <t>GRE2</t>
-  </si>
-  <si>
-    <t>HOM2</t>
-  </si>
-  <si>
-    <t>PXA2</t>
-  </si>
-  <si>
-    <t>FAS1</t>
-  </si>
-  <si>
-    <t>ADE12</t>
-  </si>
-  <si>
-    <t>GUK1</t>
-  </si>
-  <si>
-    <t>APA1</t>
-  </si>
-  <si>
-    <t>ODC1</t>
-  </si>
-  <si>
-    <t>LYS2</t>
-  </si>
-  <si>
-    <t>GDE1</t>
-  </si>
-  <si>
-    <t>PFK1</t>
-  </si>
-  <si>
-    <t>MDH1</t>
-  </si>
-  <si>
-    <t>TRX1</t>
-  </si>
-  <si>
-    <t>PRS5</t>
-  </si>
-  <si>
-    <t>AYR1</t>
-  </si>
-  <si>
-    <t>ADE17</t>
-  </si>
-  <si>
-    <t>ISC1</t>
-  </si>
-  <si>
-    <t>MLS1</t>
-  </si>
-  <si>
-    <t>ERG5</t>
-  </si>
-  <si>
-    <t>GRE3</t>
-  </si>
-  <si>
-    <t>CPA1</t>
-  </si>
-  <si>
-    <t>DIA4</t>
-  </si>
-  <si>
-    <t>LSB6</t>
-  </si>
-  <si>
-    <t>FAA4</t>
-  </si>
-  <si>
-    <t>ADE16</t>
-  </si>
-  <si>
-    <t>MET13</t>
-  </si>
-  <si>
-    <t>ILV1</t>
-  </si>
-  <si>
-    <t>CHO1</t>
-  </si>
-  <si>
-    <t>IFA38</t>
-  </si>
-  <si>
-    <t>TSC13</t>
-  </si>
-  <si>
-    <t>CHO2</t>
-  </si>
-  <si>
-    <t>CDS1</t>
-  </si>
-  <si>
-    <t>FMS1</t>
-  </si>
-  <si>
-    <t>KGD1</t>
-  </si>
-  <si>
-    <t>PDX1</t>
-  </si>
-  <si>
-    <t>ELO1</t>
-  </si>
-  <si>
-    <t>THR1</t>
-  </si>
-  <si>
-    <t>IPP1</t>
-  </si>
-  <si>
-    <t>ZWF1</t>
-  </si>
-  <si>
-    <t>BNA4</t>
-  </si>
-  <si>
-    <t>PRS3</t>
-  </si>
-  <si>
-    <t>MEU1</t>
-  </si>
-  <si>
-    <t>PDH1</t>
-  </si>
-  <si>
-    <t>PRO2</t>
-  </si>
-  <si>
-    <t>CYS3</t>
-  </si>
-  <si>
-    <t>DPS1</t>
-  </si>
-  <si>
-    <t>BNA3</t>
-  </si>
-  <si>
-    <t>JEN1</t>
-  </si>
-  <si>
-    <t>ARG4</t>
-  </si>
-  <si>
-    <t>BNA7</t>
-  </si>
-  <si>
-    <t>ERG13</t>
-  </si>
-  <si>
-    <t>LAT1</t>
-  </si>
-  <si>
-    <t>CYB2</t>
-  </si>
-  <si>
-    <t>YNK1</t>
-  </si>
-  <si>
-    <t>CYC1</t>
-  </si>
-  <si>
-    <t>ERG3</t>
-  </si>
-  <si>
-    <t>THR4</t>
-  </si>
-  <si>
-    <t>SDH4</t>
-  </si>
-  <si>
-    <t>PRO3</t>
-  </si>
-  <si>
-    <t>BNA2</t>
-  </si>
-  <si>
-    <t>STT4</t>
-  </si>
-  <si>
-    <t>KGD2</t>
-  </si>
-  <si>
-    <t>LYS20</t>
-  </si>
-  <si>
-    <t>BDH1</t>
-  </si>
-  <si>
-    <t>ALE1</t>
-  </si>
-  <si>
-    <t>ARG8</t>
-  </si>
-  <si>
-    <t>MET10</t>
-  </si>
-  <si>
-    <t>CAB4</t>
-  </si>
-  <si>
-    <t>GUS1</t>
-  </si>
-  <si>
-    <t>ERG6</t>
-  </si>
-  <si>
-    <t>TRP5</t>
-  </si>
-  <si>
-    <t>THI80</t>
-  </si>
-  <si>
-    <t>PCT1</t>
-  </si>
-  <si>
-    <t>MIR1</t>
-  </si>
-  <si>
-    <t>ILV2</t>
-  </si>
-  <si>
-    <t>HAM1</t>
-  </si>
-  <si>
-    <t>PXA1</t>
-  </si>
-  <si>
-    <t>FAS2</t>
-  </si>
-  <si>
-    <t>IAH1</t>
-  </si>
-  <si>
-    <t>ADH1</t>
-  </si>
-  <si>
-    <t>SDH1</t>
-  </si>
-  <si>
-    <t>SHM1</t>
-  </si>
-  <si>
-    <t>FRS1</t>
-  </si>
-  <si>
-    <t>YIA6</t>
-  </si>
-  <si>
-    <t>INP52</t>
-  </si>
-  <si>
-    <t>INP54</t>
+    <t>TPS2</t>
+  </si>
+  <si>
+    <t>PGI1</t>
   </si>
   <si>
     <t>UTR4</t>
-  </si>
-  <si>
-    <t>FAA2</t>
-  </si>
-  <si>
-    <t>INM2</t>
-  </si>
-  <si>
-    <t>MRI1</t>
-  </si>
-  <si>
-    <t>LEU2</t>
-  </si>
-  <si>
-    <t>ARG3</t>
-  </si>
-  <si>
-    <t>ADK1</t>
-  </si>
-  <si>
-    <t>GRS1</t>
-  </si>
-  <si>
-    <t>PUT1</t>
-  </si>
-  <si>
-    <t>MSS4</t>
-  </si>
-  <si>
-    <t>GAD1</t>
-  </si>
-  <si>
-    <t>IDP2</t>
-  </si>
-  <si>
-    <t>ERG10</t>
-  </si>
-  <si>
-    <t>HIS7</t>
-  </si>
-  <si>
-    <t>TRP4</t>
-  </si>
-  <si>
-    <t>ILS1</t>
-  </si>
-  <si>
-    <t>ICL2</t>
-  </si>
-  <si>
-    <t>ADH5</t>
-  </si>
-  <si>
-    <t>CAB1</t>
-  </si>
-  <si>
-    <t>SCT1</t>
-  </si>
-  <si>
-    <t>PGI1</t>
-  </si>
-  <si>
-    <t>LYS1</t>
-  </si>
-  <si>
-    <t>SDH3</t>
-  </si>
-  <si>
-    <t>HOM3</t>
-  </si>
-  <si>
-    <t>ACH1</t>
-  </si>
-  <si>
-    <t>MET2</t>
-  </si>
-  <si>
-    <t>ARG7</t>
-  </si>
-  <si>
-    <t>URA4</t>
-  </si>
-  <si>
-    <t>UGA1</t>
-  </si>
-  <si>
-    <t>ILV3</t>
-  </si>
-  <si>
-    <t>ALT2</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A249"/>
+  <dimension ref="A1:A271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1184,1147 +1268,1257 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>118</v>
+        <v>225</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>112</v>
+        <v>234</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>234</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
